--- a/biology/Zoologie/Archonta/Archonta.xlsx
+++ b/biology/Zoologie/Archonta/Archonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archontes
-Les Archonta (Archontes en français) étaient un taxon des mammifères placentaires aujourd'hui considéré comme désuet et polyphylétique[1]. Il regroupait notamment les primates, les toupayes, les dermoptères et les chauves-souris.
+Les Archonta (Archontes en français) étaient un taxon des mammifères placentaires aujourd'hui considéré comme désuet et polyphylétique. Il regroupait notamment les primates, les toupayes, les dermoptères et les chauves-souris.
 Depuis la fin du XXe siècle, ce clade est utilisé dans une définition plus restreinte qui en exclut les chauves-souris. Au vu de ce changement majeur, on lui préfère le terme de Euarchonta.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1910, le paléontologue américain William King Gregory propose la création du super-ordre des Archonta, terme construit à partir du grec ancien ἄρχοντες / árkhontes, de ἄρχω / árkhô, « commander, être le chef ». Il y regroupe d'une part les primates au sens strict, les dermoptères (lémurs volants) et les chiroptères (chauves-souris) et d'autre part le sous-ordre des Menotyphla, composé des macroscélides (musaraignes à trompe) et des scandentiens (toupayes), qui était auparavant considéré comme faisant partie des Insectivores[2]. Cette division a été plus ou moins soutenue pendant tout le XXe siècle, en excluant les macroscélides. Les Archonta étaient censés appartenir aux preptothériens, lui-même taxon désuet. Ils se caractérisent par un pénis pendant.
-Les analyses génétiques démontrent[1] que les chauves-souris ne sont pas aussi proches des autres groupes qu'il était envisagé auparavant. Dans la systématique révisée, ce taxon devient l'équivalent de celui des Euarchonta. Une catégorie excluant les chauves-souris et intégrant les Anagalides a également été proposée et s'appelle Euarchontoglires.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1910, le paléontologue américain William King Gregory propose la création du super-ordre des Archonta, terme construit à partir du grec ancien ἄρχοντες / árkhontes, de ἄρχω / árkhô, « commander, être le chef ». Il y regroupe d'une part les primates au sens strict, les dermoptères (lémurs volants) et les chiroptères (chauves-souris) et d'autre part le sous-ordre des Menotyphla, composé des macroscélides (musaraignes à trompe) et des scandentiens (toupayes), qui était auparavant considéré comme faisant partie des Insectivores. Cette division a été plus ou moins soutenue pendant tout le XXe siècle, en excluant les macroscélides. Les Archonta étaient censés appartenir aux preptothériens, lui-même taxon désuet. Ils se caractérisent par un pénis pendant.
+Les analyses génétiques démontrent que les chauves-souris ne sont pas aussi proches des autres groupes qu'il était envisagé auparavant. Dans la systématique révisée, ce taxon devient l'équivalent de celui des Euarchonta. Une catégorie excluant les chauves-souris et intégrant les Anagalides a également été proposée et s'appelle Euarchontoglires.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Ancienne classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Preptothériens désuet
 Insectivores
@@ -586,9 +602,11 @@
           <t>Nouvelle classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des ordres actuels d’euarchontoglires d'après Murphy et al., 2001[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des ordres actuels d’euarchontoglires d'après Murphy et al., 2001 :
 Note : La position des toupayes est sujette à controverse. Ils sont parfois placés auprès de Dermoptera pour former Sundatheria, ou parfois placés comme groupe frère des Glires.
 </t>
         </is>
